--- a/Route66/Documents/FOS lijst AutoLogic 2017 2018.xlsx
+++ b/Route66/Documents/FOS lijst AutoLogic 2017 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="309">
   <si>
     <t>Nr.</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t xml:space="preserve"> Voorbeeld route G1-P-10_H_ASH23012017.ALR in RouteCreator wordt geen startpunt getoond in de tabel NP. Wel op kaart.</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>opmerking</t>
   </si>
   <si>
@@ -1148,10 +1145,37 @@
     <t>Niet nodig in route66</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>GPS marker kunnen via menu aan/uit gezet worden.</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>navteq wordt niet meer gebruikt</t>
+  </si>
+  <si>
+    <t>Knippen /plakken gaat nu via Ctrl-X, Ctrl-V</t>
+  </si>
+  <si>
+    <t>Kaart wordt automatisch gecentreerd bij openen bestand.</t>
+  </si>
+  <si>
+    <t>markers worden m.b.v. Del toets verwijderd.</t>
+  </si>
+  <si>
+    <t>Kaarten worden automatisch van server gehaald.</t>
+  </si>
+  <si>
+    <t>Er verschijnt een status melding (in rood) wanneer route geen GPS markers bevat.</t>
+  </si>
+  <si>
+    <t>AR0 laten vervallen?  Kan wat betreft route66.</t>
+  </si>
+  <si>
+    <t>Via Ctrl-O kun je pad opgeven. Laatste gebruikte pad wordt onthouden.</t>
   </si>
 </sst>
 </file>
@@ -1409,30 +1433,6 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1525,6 +1525,30 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2139,9 +2163,9 @@
         <filter val="RouteCreator"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
+    <filterColumn colId="9">
       <filters>
-        <filter val="Wens"/>
+        <filter val="Open"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2159,12 +2183,12 @@
     <tableColumn id="6" name="Datum" dataDxfId="8"/>
     <tableColumn id="11" name="Prio" dataDxfId="7"/>
     <tableColumn id="15" name="Route66" dataDxfId="6"/>
-    <tableColumn id="16" name="opmerking" dataDxfId="0"/>
-    <tableColumn id="7" name="Status" dataDxfId="5"/>
-    <tableColumn id="14" name="Datum afgehandeld" dataDxfId="4"/>
-    <tableColumn id="8" name="Afbeelding" dataDxfId="3"/>
-    <tableColumn id="9" name="Jira Item / geescaleerd?" dataDxfId="2"/>
-    <tableColumn id="13" name="Extra toelichting" dataDxfId="1"/>
+    <tableColumn id="16" name="opmerking" dataDxfId="5"/>
+    <tableColumn id="7" name="Status" dataDxfId="4"/>
+    <tableColumn id="14" name="Datum afgehandeld" dataDxfId="3"/>
+    <tableColumn id="8" name="Afbeelding" dataDxfId="2"/>
+    <tableColumn id="9" name="Jira Item / geescaleerd?" dataDxfId="1"/>
+    <tableColumn id="13" name="Extra toelichting" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2466,7 +2490,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2479,11 +2503,11 @@
     <col min="6" max="6" width="9.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.109375" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="5" style="22" customWidth="1"/>
-    <col min="10" max="10" width="11" style="22" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="39.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="39.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="12" style="5" customWidth="1"/>
     <col min="15" max="15" width="23.6640625" style="25" customWidth="1"/>
     <col min="16" max="16" width="83.5546875" style="5" customWidth="1"/>
@@ -2521,7 +2545,7 @@
         <v>273</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>5</v>
@@ -2568,7 +2592,9 @@
       <c r="J2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="L2" s="15" t="s">
         <v>218</v>
       </c>
@@ -2577,7 +2603,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A3" s="26">
         <v>4</v>
       </c>
@@ -2607,7 +2633,7 @@
         <v>274</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>193</v>
@@ -2695,7 +2721,7 @@
       </c>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="26">
         <v>9</v>
       </c>
@@ -2725,7 +2751,7 @@
         <v>274</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>188</v>
@@ -2766,7 +2792,9 @@
       <c r="J7" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="L7" s="15" t="s">
         <v>193</v>
       </c>
@@ -2842,7 +2870,9 @@
       <c r="J9" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="L9" s="15" t="s">
         <v>188</v>
       </c>
@@ -2853,7 +2883,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A10" s="26">
         <v>17</v>
       </c>
@@ -2883,7 +2913,7 @@
         <v>274</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>188</v>
@@ -2926,7 +2956,9 @@
       <c r="J11" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="L11" s="15" t="s">
         <v>188</v>
       </c>
@@ -3074,7 +3106,9 @@
       <c r="J15" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="L15" s="15" t="s">
         <v>218</v>
       </c>
@@ -3155,7 +3189,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A18" s="26">
         <v>35</v>
       </c>
@@ -3182,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>193</v>
@@ -3195,7 +3229,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="26">
         <v>36</v>
       </c>
@@ -3225,7 +3259,7 @@
         <v>274</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>188</v>
@@ -3237,7 +3271,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A20" s="26">
         <v>38</v>
       </c>
@@ -3267,7 +3301,7 @@
         <v>274</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>193</v>
@@ -3414,7 +3448,7 @@
       <c r="J24" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="15" t="s">
         <v>188</v>
       </c>
@@ -3456,7 +3490,7 @@
       <c r="J25" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K25" s="15"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="15" t="s">
         <v>218</v>
       </c>
@@ -3494,7 +3528,7 @@
       <c r="J26" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="15" t="s">
         <v>218</v>
       </c>
@@ -3532,7 +3566,7 @@
       <c r="J27" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="15" t="s">
         <v>193</v>
       </c>
@@ -3653,7 +3687,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="26">
         <v>76</v>
       </c>
@@ -3679,8 +3713,10 @@
       <c r="I31" s="15">
         <v>1</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="J31" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" s="18"/>
       <c r="L31" s="15" t="s">
         <v>218</v>
       </c>
@@ -3720,7 +3756,7 @@
       <c r="J32" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="15" t="s">
         <v>218</v>
       </c>
@@ -3760,7 +3796,7 @@
       <c r="J33" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="15" t="s">
         <v>188</v>
       </c>
@@ -3800,7 +3836,7 @@
       <c r="J34" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="15" t="s">
         <v>218</v>
       </c>
@@ -3809,7 +3845,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A35" s="26">
         <v>97</v>
       </c>
@@ -3839,7 +3875,7 @@
         <v>274</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>188</v>
@@ -3851,7 +3887,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A36" s="26">
         <v>98</v>
       </c>
@@ -3881,7 +3917,7 @@
         <v>274</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L36" s="15" t="s">
         <v>193</v>
@@ -3891,7 +3927,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="37" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A37" s="26">
         <v>99</v>
       </c>
@@ -3921,7 +3957,7 @@
         <v>274</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>193</v>
@@ -3931,7 +3967,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A38" s="26">
         <v>100</v>
       </c>
@@ -3961,7 +3997,7 @@
         <v>274</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>193</v>
@@ -3971,7 +4007,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A39" s="26">
         <v>101</v>
       </c>
@@ -4001,7 +4037,7 @@
         <v>274</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>193</v>
@@ -4011,7 +4047,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="40" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A40" s="26">
         <v>103</v>
       </c>
@@ -4041,7 +4077,7 @@
         <v>274</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>188</v>
@@ -4091,7 +4127,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="26">
         <v>104</v>
       </c>
@@ -4121,7 +4157,7 @@
         <v>274</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L42" s="15" t="s">
         <v>188</v>
@@ -4133,7 +4169,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A43" s="26">
         <v>105</v>
       </c>
@@ -4163,7 +4199,7 @@
         <v>274</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L43" s="15" t="s">
         <v>188</v>
@@ -4175,7 +4211,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A44" s="26">
         <v>106</v>
       </c>
@@ -4205,7 +4241,7 @@
         <v>274</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L44" s="15" t="s">
         <v>218</v>
@@ -4395,7 +4431,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="50" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A50" s="26">
         <v>107</v>
       </c>
@@ -4425,7 +4461,7 @@
         <v>274</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>218</v>
@@ -4435,7 +4471,7 @@
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="51" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A51" s="26">
         <v>108</v>
       </c>
@@ -4465,7 +4501,7 @@
         <v>274</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L51" s="15" t="s">
         <v>218</v>
@@ -4504,7 +4540,7 @@
       <c r="J52" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K52" s="20"/>
+      <c r="K52" s="30"/>
       <c r="L52" s="20" t="s">
         <v>193</v>
       </c>
@@ -4578,7 +4614,7 @@
       <c r="J54" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K54" s="20"/>
+      <c r="K54" s="30"/>
       <c r="L54" s="20" t="s">
         <v>193</v>
       </c>
@@ -4618,7 +4654,7 @@
       <c r="J55" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="18"/>
       <c r="L55" s="15" t="s">
         <v>188</v>
       </c>
@@ -4701,7 +4737,7 @@
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
     </row>
-    <row r="58" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="58" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A58" s="45">
         <v>119</v>
       </c>
@@ -4731,7 +4767,7 @@
         <v>274</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L58" s="46" t="s">
         <v>193</v>
@@ -4808,7 +4844,7 @@
       <c r="J60" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K60" s="15"/>
+      <c r="K60" s="18"/>
       <c r="L60" s="6" t="s">
         <v>188</v>
       </c>
@@ -4886,7 +4922,7 @@
       <c r="J62" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K62" s="20"/>
+      <c r="K62" s="30"/>
       <c r="L62" s="46" t="s">
         <v>188</v>
       </c>
@@ -4959,8 +4995,10 @@
       <c r="I64" s="15">
         <v>1</v>
       </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
+      <c r="J64" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K64" s="18"/>
       <c r="L64" s="6" t="s">
         <v>268</v>
       </c>
@@ -4999,7 +5037,7 @@
         <v>193</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L65" s="15" t="s">
         <v>193</v>
@@ -5362,7 +5400,7 @@
       <c r="J75" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="18"/>
       <c r="L75" s="15" t="s">
         <v>188</v>
       </c>
@@ -5404,7 +5442,7 @@
       <c r="J76" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K76" s="15"/>
+      <c r="K76" s="18"/>
       <c r="L76" s="15" t="s">
         <v>193</v>
       </c>
@@ -5413,7 +5451,7 @@
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="77" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A77" s="26">
         <v>19</v>
       </c>
@@ -5453,7 +5491,7 @@
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="78" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A78" s="26">
         <v>23</v>
       </c>
@@ -5481,7 +5519,7 @@
         <v>274</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>193</v>
@@ -5527,7 +5565,7 @@
       <c r="O79" s="15"/>
       <c r="P79" s="15"/>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" ht="92.25" customHeight="1">
+    <row r="80" spans="1:16" s="3" customFormat="1" ht="92.25" hidden="1" customHeight="1">
       <c r="A80" s="26">
         <v>26</v>
       </c>
@@ -5603,7 +5641,7 @@
       <c r="O81" s="15"/>
       <c r="P81" s="15"/>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="82" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A82" s="26">
         <v>31</v>
       </c>
@@ -5633,7 +5671,7 @@
         <v>274</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>193</v>
@@ -5672,7 +5710,7 @@
       <c r="J83" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="18"/>
       <c r="L83" s="15" t="s">
         <v>193</v>
       </c>
@@ -5710,7 +5748,7 @@
       <c r="J84" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K84" s="15"/>
+      <c r="K84" s="18"/>
       <c r="L84" s="15" t="s">
         <v>193</v>
       </c>
@@ -5750,7 +5788,7 @@
       <c r="J85" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K85" s="15"/>
+      <c r="K85" s="18"/>
       <c r="L85" s="15" t="s">
         <v>188</v>
       </c>
@@ -5763,7 +5801,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="86" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A86" s="26">
         <v>49</v>
       </c>
@@ -5789,7 +5827,9 @@
       <c r="I86" s="15">
         <v>2</v>
       </c>
-      <c r="J86" s="15"/>
+      <c r="J86" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="K86" s="18"/>
       <c r="L86" s="15" t="s">
         <v>193</v>
@@ -5799,7 +5839,7 @@
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="87" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A87" s="26">
         <v>51</v>
       </c>
@@ -5826,9 +5866,11 @@
         <v>2</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K87" s="15"/>
+        <v>193</v>
+      </c>
+      <c r="K87" s="18" t="s">
+        <v>307</v>
+      </c>
       <c r="L87" s="15" t="s">
         <v>193</v>
       </c>
@@ -5868,7 +5910,7 @@
       <c r="J88" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K88" s="15"/>
+      <c r="K88" s="18"/>
       <c r="L88" s="15" t="s">
         <v>193</v>
       </c>
@@ -5939,7 +5981,9 @@
       <c r="I90" s="15">
         <v>2</v>
       </c>
-      <c r="J90" s="15"/>
+      <c r="J90" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="K90" s="18"/>
       <c r="L90" s="15" t="s">
         <v>193</v>
@@ -6119,7 +6163,9 @@
       <c r="I95" s="15">
         <v>2</v>
       </c>
-      <c r="J95" s="15"/>
+      <c r="J95" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="K95" s="18"/>
       <c r="L95" s="15" t="s">
         <v>193</v>
@@ -6165,7 +6211,7 @@
       <c r="O96" s="15"/>
       <c r="P96" s="15"/>
     </row>
-    <row r="97" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="97" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A97" s="26">
         <v>63</v>
       </c>
@@ -6191,7 +6237,9 @@
       <c r="I97" s="15">
         <v>2</v>
       </c>
-      <c r="J97" s="15"/>
+      <c r="J97" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="K97" s="18"/>
       <c r="L97" s="15" t="s">
         <v>193</v>
@@ -6201,7 +6249,7 @@
       <c r="O97" s="15"/>
       <c r="P97" s="15"/>
     </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="98" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A98" s="26">
         <v>79</v>
       </c>
@@ -6227,7 +6275,9 @@
       <c r="I98" s="15">
         <v>2</v>
       </c>
-      <c r="J98" s="15"/>
+      <c r="J98" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="K98" s="18"/>
       <c r="L98" s="15" t="s">
         <v>218</v>
@@ -6237,7 +6287,7 @@
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="99" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A99" s="26">
         <v>81</v>
       </c>
@@ -6263,8 +6313,12 @@
       <c r="I99" s="15">
         <v>2</v>
       </c>
-      <c r="J99" s="15"/>
-      <c r="K99" s="18"/>
+      <c r="J99" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="L99" s="15" t="s">
         <v>188</v>
       </c>
@@ -6304,7 +6358,7 @@
       <c r="J100" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K100" s="15"/>
+      <c r="K100" s="18"/>
       <c r="L100" s="15" t="s">
         <v>218</v>
       </c>
@@ -6313,7 +6367,7 @@
       <c r="O100" s="15"/>
       <c r="P100" s="15"/>
     </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="101" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A101" s="26">
         <v>89</v>
       </c>
@@ -6351,7 +6405,7 @@
       <c r="O101" s="15"/>
       <c r="P101" s="15"/>
     </row>
-    <row r="102" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="102" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A102" s="26">
         <v>94</v>
       </c>
@@ -6418,7 +6472,7 @@
       <c r="J103" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K103" s="20"/>
+      <c r="K103" s="30"/>
       <c r="L103" s="20" t="s">
         <v>193</v>
       </c>
@@ -6494,7 +6548,7 @@
       <c r="J105" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K105" s="20"/>
+      <c r="K105" s="30"/>
       <c r="L105" s="20" t="s">
         <v>193</v>
       </c>
@@ -6570,7 +6624,7 @@
       <c r="J107" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K107" s="20"/>
+      <c r="K107" s="30"/>
       <c r="L107" s="20" t="s">
         <v>193</v>
       </c>
@@ -6581,7 +6635,7 @@
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
     </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="108" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A108" s="43">
         <v>122</v>
       </c>
@@ -6611,7 +6665,7 @@
         <v>274</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>193</v>
@@ -6646,9 +6700,9 @@
         <v>2</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="K109" s="15"/>
+        <v>274</v>
+      </c>
+      <c r="K109" s="18"/>
       <c r="L109" s="6" t="s">
         <v>193</v>
       </c>
@@ -6717,7 +6771,9 @@
       <c r="I111" s="15">
         <v>3</v>
       </c>
-      <c r="J111" s="15"/>
+      <c r="J111" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="K111" s="18"/>
       <c r="L111" s="15" t="s">
         <v>193</v>
@@ -6727,7 +6783,7 @@
       <c r="O111" s="15"/>
       <c r="P111" s="15"/>
     </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="112" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A112" s="26">
         <v>34</v>
       </c>
@@ -6754,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="K112" s="18"/>
       <c r="L112" s="15" t="s">
@@ -6765,7 +6821,7 @@
       <c r="O112" s="15"/>
       <c r="P112" s="15"/>
     </row>
-    <row r="113" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="113" spans="1:16" s="4" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A113" s="26">
         <v>39</v>
       </c>
@@ -6801,7 +6857,7 @@
       <c r="O113" s="15"/>
       <c r="P113" s="15"/>
     </row>
-    <row r="114" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="114" spans="1:16" s="4" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A114" s="26">
         <v>42</v>
       </c>
@@ -6837,7 +6893,7 @@
       <c r="O114" s="15"/>
       <c r="P114" s="15"/>
     </row>
-    <row r="115" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="115" spans="1:16" s="4" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A115" s="26">
         <v>43</v>
       </c>
@@ -6873,7 +6929,7 @@
       <c r="O115" s="15"/>
       <c r="P115" s="15"/>
     </row>
-    <row r="116" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="116" spans="1:16" s="4" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A116" s="26">
         <v>64</v>
       </c>
@@ -6938,7 +6994,7 @@
       <c r="J117" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K117" s="15"/>
+      <c r="K117" s="18"/>
       <c r="L117" s="15" t="s">
         <v>218</v>
       </c>
@@ -7019,7 +7075,7 @@
       <c r="O119" s="51"/>
       <c r="P119" s="50"/>
     </row>
-    <row r="120" spans="1:16" s="52" customFormat="1" ht="30" customHeight="1">
+    <row r="120" spans="1:16" s="52" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A120" s="26">
         <v>77</v>
       </c>
@@ -7055,7 +7111,7 @@
       <c r="O120" s="15"/>
       <c r="P120" s="15"/>
     </row>
-    <row r="121" spans="1:16" s="53" customFormat="1" ht="28.8">
+    <row r="121" spans="1:16" s="53" customFormat="1" ht="28.8" hidden="1">
       <c r="A121" s="26">
         <v>80</v>
       </c>
@@ -7091,7 +7147,7 @@
       <c r="O121" s="15"/>
       <c r="P121" s="15"/>
     </row>
-    <row r="122" spans="1:16" s="49" customFormat="1" ht="30" customHeight="1">
+    <row r="122" spans="1:16" s="49" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A122" s="26">
         <v>82</v>
       </c>
@@ -7127,7 +7183,7 @@
       <c r="O122" s="15"/>
       <c r="P122" s="15"/>
     </row>
-    <row r="123" spans="1:16" s="53" customFormat="1" ht="30" customHeight="1">
+    <row r="123" spans="1:16" s="53" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A123" s="26">
         <v>85</v>
       </c>
@@ -7167,7 +7223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="53" customFormat="1" ht="14.4">
+    <row r="124" spans="1:16" s="53" customFormat="1" ht="28.8" hidden="1">
       <c r="A124" s="26">
         <v>86</v>
       </c>
@@ -7193,8 +7249,12 @@
       <c r="I124" s="15">
         <v>3</v>
       </c>
-      <c r="J124" s="15"/>
-      <c r="K124" s="18"/>
+      <c r="J124" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="L124" s="15" t="s">
         <v>193</v>
       </c>
@@ -7203,7 +7263,7 @@
       <c r="O124" s="15"/>
       <c r="P124" s="15"/>
     </row>
-    <row r="125" spans="1:16" s="53" customFormat="1" ht="30" customHeight="1">
+    <row r="125" spans="1:16" s="53" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A125" s="32">
         <v>114</v>
       </c>
@@ -7261,7 +7321,9 @@
         <v>43136</v>
       </c>
       <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
+      <c r="J126" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="K126" s="18"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -7383,7 +7445,7 @@
     <hyperlink ref="O5" r:id="rId2" display="http://jira.ash.ads.org/browse/ASCS-41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="8" scale="48" orientation="landscape" r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>

--- a/Route66/Documents/FOS lijst AutoLogic 2017 2018.xlsx
+++ b/Route66/Documents/FOS lijst AutoLogic 2017 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="318">
   <si>
     <t>Nr.</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>route multiply</t>
-  </si>
-  <si>
-    <t>klanten willen routes vermeerderen met verschillende doseerprofielen en/of breedteprofielen. Dit is nu erg bewerkelijk, zeker als er verschillende waarden op meerdere plekken in de route afzonderlijk moeten worden gewijzigd. Kan er een functie komen waarbij de verschillende aanwezige waarden kunnen worden omgezet ?</t>
   </si>
   <si>
     <t xml:space="preserve">routebeheer </t>
@@ -1127,9 +1124,6 @@
     <t>Wijziggen van bestaande route worden via Save opgeslagen.</t>
   </si>
   <si>
-    <t>ALR wordt niet ondersteund.</t>
-  </si>
-  <si>
     <t>Openstreetview is en van de vele map opties.</t>
   </si>
   <si>
@@ -1151,18 +1145,9 @@
     <t>OPEN</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>navteq wordt niet meer gebruikt</t>
   </si>
   <si>
-    <t>Knippen /plakken gaat nu via Ctrl-X, Ctrl-V</t>
-  </si>
-  <si>
-    <t>Kaart wordt automatisch gecentreerd bij openen bestand.</t>
-  </si>
-  <si>
     <t>markers worden m.b.v. Del toets verwijderd.</t>
   </si>
   <si>
@@ -1176,6 +1161,48 @@
   </si>
   <si>
     <t>Via Ctrl-O kun je pad opgeven. Laatste gebruikte pad wordt onthouden.</t>
+  </si>
+  <si>
+    <t>Knippen /plakken gaat nu zonder tekst via Ctrl-X, Ctrl-V</t>
+  </si>
+  <si>
+    <t>Kaart wordt automatisch gecentreerd bij openen bestand zonder centreer knop.</t>
+  </si>
+  <si>
+    <t>klanten willen routes vermeerderen met verschillende doseerprofielen en/of breedteprofielen. Dit is nu erg bewerkelijk, zeker als er verschillende waarden op meerdere plekken in de route afzonderlijk moeten worden gewijzigd. Kan er een functie komen waarbij de verschillende aanwezige waarden kunnen worden omgezet?</t>
+  </si>
+  <si>
+    <t>Gaat via toets: C= Change marker, N = Navigation marker</t>
+  </si>
+  <si>
+    <t>File Management is part of windows. not of route66.</t>
+  </si>
+  <si>
+    <t>There are no tables in Route66</t>
+  </si>
+  <si>
+    <t>Route66 has Windows look and feel. See requirement 1.</t>
+  </si>
+  <si>
+    <t>Strooibreedte wort in tooltip getoond.</t>
+  </si>
+  <si>
+    <t>conform ar3 specification: All items are optional, except DistanceFromStartInCm.</t>
+  </si>
+  <si>
+    <t>Select menu function Exit.</t>
+  </si>
+  <si>
+    <t>In route66 wordt altijd met actueel machine type gewerkt. Deze wordt recht in status balk weergegeven.</t>
+  </si>
+  <si>
+    <t>Het is handig om versienummer in beeld te hebben wanneer b.v. een screenshot wordt opgestuurd.</t>
+  </si>
+  <si>
+    <t>zie punt 39</t>
+  </si>
+  <si>
+    <t>Route66 ondersteunt geen ALR.</t>
   </si>
 </sst>
 </file>
@@ -2165,6 +2192,14 @@
     </filterColumn>
     <filterColumn colId="9">
       <filters>
+        <filter val="?"/>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1">
+        <filter val="Geescaleerd naar ontwikkeling 1-11-2017"/>
+        <filter val="Geescaleerd naar ontwikkeling op 24-11-2017"/>
         <filter val="Open"/>
       </filters>
     </filterColumn>
@@ -2487,10 +2522,10 @@
   <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2499,15 +2534,15 @@
     <col min="2" max="2" width="12.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="111.5546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="88.44140625" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.109375" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="49.21875" style="27" customWidth="1"/>
     <col min="12" max="12" width="39.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="5" customWidth="1"/>
     <col min="14" max="14" width="12" style="5" customWidth="1"/>
     <col min="15" max="15" width="23.6640625" style="25" customWidth="1"/>
     <col min="16" max="16" width="83.5546875" style="5" customWidth="1"/>
@@ -2542,25 +2577,25 @@
         <v>27</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -2590,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -2630,13 +2665,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -2654,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>16</v>
@@ -2674,7 +2709,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -2708,11 +2743,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -2733,7 +2768,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>24</v>
@@ -2748,13 +2783,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M6" s="44">
         <v>43061</v>
@@ -2790,19 +2825,19 @@
         <v>1</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -2834,7 +2869,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -2853,7 +2888,7 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>24</v>
@@ -2868,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" s="44">
         <v>43061</v>
@@ -2895,7 +2930,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>38</v>
@@ -2910,13 +2945,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M10" s="44">
         <v>43061</v>
@@ -2924,7 +2959,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -2954,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M11" s="44">
         <v>43061</v>
@@ -2968,7 +3003,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -3000,7 +3035,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -3036,7 +3071,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -3070,7 +3105,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -3091,7 +3126,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
@@ -3104,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -3146,7 +3181,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -3189,7 +3224,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="26">
         <v>35</v>
       </c>
@@ -3203,7 +3238,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15" t="s">
@@ -3216,13 +3251,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -3240,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15" t="s">
@@ -3256,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="42">
         <v>43123</v>
@@ -3282,10 +3317,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
@@ -3298,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -3340,7 +3375,7 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -3376,7 +3411,7 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -3394,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>43</v>
@@ -3412,7 +3447,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -3430,10 +3465,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
@@ -3446,11 +3481,11 @@
         <v>1</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M24" s="44">
         <v>43061</v>
@@ -3458,7 +3493,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -3472,10 +3507,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
@@ -3488,11 +3523,11 @@
         <v>1</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
@@ -3510,10 +3545,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="s">
@@ -3526,11 +3561,11 @@
         <v>1</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
@@ -3548,10 +3583,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="s">
@@ -3564,17 +3599,17 @@
         <v>1</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -3606,7 +3641,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
@@ -3627,7 +3662,7 @@
         <v>52</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
@@ -3642,7 +3677,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15">
@@ -3680,7 +3715,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
@@ -3698,10 +3733,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
@@ -3714,17 +3749,17 @@
         <v>1</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -3738,10 +3773,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
@@ -3754,11 +3789,11 @@
         <v>1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
@@ -3776,13 +3811,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>35</v>
@@ -3794,11 +3829,11 @@
         <v>1</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M33" s="17">
         <v>43123</v>
@@ -3818,10 +3853,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15" t="s">
@@ -3834,11 +3869,11 @@
         <v>1</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
@@ -3856,10 +3891,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>198</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>199</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15" t="s">
@@ -3872,13 +3907,13 @@
         <v>1</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M35" s="17">
         <v>43123</v>
@@ -3898,10 +3933,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15" t="s">
@@ -3914,13 +3949,13 @@
         <v>1</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
@@ -3938,10 +3973,10 @@
         <v>11</v>
       </c>
       <c r="D37" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15" t="s">
@@ -3954,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
@@ -3978,10 +4013,10 @@
         <v>11</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15" t="s">
@@ -3994,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
@@ -4018,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="D39" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15" t="s">
@@ -4034,13 +4069,13 @@
         <v>1</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -4058,10 +4093,10 @@
         <v>11</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>214</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15" t="s">
@@ -4074,13 +4109,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M40" s="17">
         <v>43123</v>
@@ -4088,7 +4123,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -4102,10 +4137,10 @@
         <v>11</v>
       </c>
       <c r="D41" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15" t="s">
@@ -4120,7 +4155,7 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -4138,10 +4173,10 @@
         <v>11</v>
       </c>
       <c r="D42" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>216</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15" t="s">
@@ -4154,13 +4189,13 @@
         <v>1</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M42" s="44">
         <v>43061</v>
@@ -4180,10 +4215,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
@@ -4196,13 +4231,13 @@
         <v>1</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M43" s="42">
         <v>43123</v>
@@ -4222,10 +4257,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15" t="s">
@@ -4238,13 +4273,13 @@
         <v>1</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
@@ -4262,10 +4297,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15" t="s">
@@ -4280,7 +4315,7 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
@@ -4298,10 +4333,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="15" t="s">
@@ -4316,7 +4351,7 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
@@ -4334,10 +4369,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="15" t="s">
@@ -4352,7 +4387,7 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
@@ -4370,10 +4405,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15" t="s">
@@ -4388,7 +4423,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
@@ -4406,10 +4441,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="15" t="s">
@@ -4424,7 +4459,7 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
@@ -4442,10 +4477,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15" t="s">
@@ -4458,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
@@ -4482,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="15" t="s">
@@ -4498,13 +4533,13 @@
         <v>1</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
@@ -4522,10 +4557,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="30" t="s">
         <v>239</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>240</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20" t="s">
@@ -4538,11 +4573,11 @@
         <v>1</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" s="30"/>
       <c r="L52" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
@@ -4560,10 +4595,10 @@
         <v>7</v>
       </c>
       <c r="D53" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15" t="s">
@@ -4578,7 +4613,7 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
@@ -4596,10 +4631,10 @@
         <v>7</v>
       </c>
       <c r="D54" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="30" t="s">
         <v>246</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20" t="s">
@@ -4612,11 +4647,11 @@
         <v>1</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K54" s="30"/>
       <c r="L54" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
@@ -4634,13 +4669,13 @@
         <v>7</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>249</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>13</v>
@@ -4652,11 +4687,13 @@
         <v>1</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K55" s="18"/>
+        <v>273</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>307</v>
+      </c>
       <c r="L55" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M55" s="17">
         <v>43061</v>
@@ -4676,10 +4713,10 @@
         <v>11</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15" t="s">
@@ -4694,7 +4731,7 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
@@ -4712,10 +4749,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15" t="s">
@@ -4730,7 +4767,7 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
@@ -4748,10 +4785,10 @@
         <v>11</v>
       </c>
       <c r="D58" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="47" t="s">
         <v>253</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>254</v>
       </c>
       <c r="F58" s="46"/>
       <c r="G58" s="20" t="s">
@@ -4764,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L58" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M58" s="46"/>
       <c r="N58" s="50"/>
@@ -4788,10 +4825,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15" t="s">
@@ -4806,7 +4843,7 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
@@ -4824,13 +4861,13 @@
         <v>7</v>
       </c>
       <c r="D60" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="F60" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>35</v>
@@ -4842,11 +4879,11 @@
         <v>1</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K60" s="18"/>
       <c r="L60" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M60" s="44">
         <v>43061</v>
@@ -4866,10 +4903,10 @@
         <v>11</v>
       </c>
       <c r="D61" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15" t="s">
@@ -4884,7 +4921,7 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
@@ -4902,13 +4939,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>13</v>
@@ -4920,11 +4957,11 @@
         <v>1</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K62" s="30"/>
       <c r="L62" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M62" s="54">
         <v>43123</v>
@@ -4944,10 +4981,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15" t="s">
@@ -4962,7 +4999,7 @@
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
@@ -4980,10 +5017,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="15" t="s">
@@ -4996,18 +5033,18 @@
         <v>1</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K64" s="18"/>
       <c r="L64" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="15"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="65" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A65" s="26">
         <v>2</v>
       </c>
@@ -5019,7 +5056,7 @@
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>24</v>
@@ -5034,13 +5071,13 @@
         <v>2</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
@@ -5058,10 +5095,10 @@
         <v>11</v>
       </c>
       <c r="D66" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15" t="s">
@@ -5076,7 +5113,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
@@ -5094,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="D67" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15" t="s">
@@ -5112,7 +5149,7 @@
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
@@ -5130,10 +5167,10 @@
         <v>11</v>
       </c>
       <c r="D68" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15" t="s">
@@ -5148,7 +5185,7 @@
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
@@ -5166,10 +5203,10 @@
         <v>11</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15" t="s">
@@ -5184,7 +5221,7 @@
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
@@ -5202,10 +5239,10 @@
         <v>11</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15" t="s">
@@ -5220,7 +5257,7 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
@@ -5238,10 +5275,10 @@
         <v>11</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15" t="s">
@@ -5256,7 +5293,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
@@ -5274,10 +5311,10 @@
         <v>11</v>
       </c>
       <c r="D72" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15" t="s">
@@ -5292,7 +5329,7 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
@@ -5310,10 +5347,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15" t="s">
@@ -5328,7 +5365,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
@@ -5346,10 +5383,10 @@
         <v>11</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15" t="s">
@@ -5364,7 +5401,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
@@ -5398,11 +5435,11 @@
         <v>2</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K75" s="18"/>
       <c r="L75" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M75" s="44">
         <v>43061</v>
@@ -5440,11 +5477,11 @@
         <v>2</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K76" s="18"/>
       <c r="L76" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
@@ -5478,11 +5515,11 @@
         <v>2</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K77" s="18"/>
       <c r="L77" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M77" s="44">
         <v>43061</v>
@@ -5516,13 +5553,13 @@
         <v>2</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
@@ -5540,10 +5577,10 @@
         <v>11</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15" t="s">
@@ -5558,7 +5595,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
       <c r="L79" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
@@ -5579,7 +5616,7 @@
         <v>55</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15" t="s">
@@ -5592,11 +5629,11 @@
         <v>2</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K80" s="18"/>
       <c r="L80" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
@@ -5630,11 +5667,11 @@
         <v>2</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
@@ -5668,13 +5705,13 @@
         <v>2</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
@@ -5708,11 +5745,11 @@
         <v>2</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K83" s="18"/>
       <c r="L83" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
@@ -5730,10 +5767,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15" t="s">
@@ -5746,17 +5783,17 @@
         <v>2</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K84" s="18"/>
       <c r="L84" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -5770,10 +5807,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15" t="s">
@@ -5786,11 +5823,11 @@
         <v>2</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K85" s="18"/>
       <c r="L85" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M85" s="44">
         <v>43061</v>
@@ -5798,7 +5835,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
       <c r="P85" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -5812,10 +5849,10 @@
         <v>11</v>
       </c>
       <c r="D86" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
@@ -5828,11 +5865,11 @@
         <v>2</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
@@ -5850,10 +5887,10 @@
         <v>7</v>
       </c>
       <c r="D87" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15" t="s">
@@ -5866,19 +5903,19 @@
         <v>2</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
       <c r="P87" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
@@ -5892,10 +5929,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15" t="s">
@@ -5908,11 +5945,11 @@
         <v>2</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
@@ -5930,10 +5967,10 @@
         <v>11</v>
       </c>
       <c r="D89" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>168</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
@@ -5948,7 +5985,7 @@
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
       <c r="L89" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
@@ -5966,10 +6003,10 @@
         <v>11</v>
       </c>
       <c r="D90" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
@@ -5982,11 +6019,11 @@
         <v>2</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K90" s="18"/>
       <c r="L90" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -6004,10 +6041,10 @@
         <v>11</v>
       </c>
       <c r="D91" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
@@ -6022,7 +6059,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
       <c r="L91" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
@@ -6040,10 +6077,10 @@
         <v>11</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
@@ -6058,7 +6095,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
@@ -6076,10 +6113,10 @@
         <v>11</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15" t="s">
@@ -6094,7 +6131,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
       <c r="L93" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
@@ -6112,10 +6149,10 @@
         <v>11</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15" t="s">
@@ -6130,7 +6167,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
@@ -6148,10 +6185,10 @@
         <v>11</v>
       </c>
       <c r="D95" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
@@ -6164,11 +6201,11 @@
         <v>2</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K95" s="18"/>
       <c r="L95" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
@@ -6186,10 +6223,10 @@
         <v>11</v>
       </c>
       <c r="D96" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
@@ -6204,7 +6241,7 @@
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
       <c r="L96" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
@@ -6222,10 +6259,10 @@
         <v>11</v>
       </c>
       <c r="D97" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
@@ -6238,18 +6275,18 @@
         <v>2</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K97" s="18"/>
       <c r="L97" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
       <c r="P97" s="15"/>
     </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="98" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A98" s="26">
         <v>79</v>
       </c>
@@ -6260,10 +6297,10 @@
         <v>11</v>
       </c>
       <c r="D98" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
@@ -6276,11 +6313,11 @@
         <v>2</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="K98" s="18"/>
       <c r="L98" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -6298,10 +6335,10 @@
         <v>11</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
@@ -6314,13 +6351,13 @@
         <v>2</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M99" s="17">
         <v>43123</v>
@@ -6340,10 +6377,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15" t="s">
@@ -6356,11 +6393,11 @@
         <v>2</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K100" s="18"/>
       <c r="L100" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
@@ -6378,10 +6415,10 @@
         <v>11</v>
       </c>
       <c r="D101" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
@@ -6394,11 +6431,11 @@
         <v>2</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K101" s="18"/>
       <c r="L101" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -6416,10 +6453,10 @@
         <v>11</v>
       </c>
       <c r="D102" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15" t="s">
@@ -6432,11 +6469,11 @@
         <v>2</v>
       </c>
       <c r="J102" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K102" s="18"/>
       <c r="L102" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
@@ -6454,10 +6491,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="30" t="s">
         <v>210</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>211</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20" t="s">
@@ -6470,11 +6507,11 @@
         <v>2</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K103" s="30"/>
       <c r="L103" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="20"/>
@@ -6495,7 +6532,7 @@
         <v>55</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="20" t="s">
@@ -6508,11 +6545,11 @@
         <v>2</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K104" s="30"/>
       <c r="L104" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
@@ -6530,10 +6567,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>236</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="20" t="s">
@@ -6546,11 +6583,11 @@
         <v>2</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
@@ -6568,10 +6605,10 @@
         <v>11</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="20" t="s">
@@ -6584,11 +6621,11 @@
         <v>2</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M106" s="20"/>
       <c r="N106" s="20"/>
@@ -6609,7 +6646,7 @@
         <v>52</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="20" t="s">
@@ -6622,11 +6659,11 @@
         <v>2</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K107" s="30"/>
       <c r="L107" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="20">
@@ -6646,14 +6683,14 @@
         <v>11</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H108" s="42">
         <v>43062</v>
@@ -6662,13 +6699,13 @@
         <v>2</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
@@ -6687,7 +6724,7 @@
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="15" t="s">
@@ -6700,11 +6737,11 @@
         <v>2</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K109" s="18"/>
       <c r="L109" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
@@ -6736,11 +6773,11 @@
         <v>3</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K110" s="18"/>
       <c r="L110" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
@@ -6772,18 +6809,18 @@
         <v>3</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K111" s="18"/>
       <c r="L111" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
       <c r="P111" s="15"/>
     </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="112" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A112" s="26">
         <v>34</v>
       </c>
@@ -6810,11 +6847,11 @@
         <v>3</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="K112" s="18"/>
       <c r="L112" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
@@ -6832,10 +6869,10 @@
         <v>11</v>
       </c>
       <c r="D113" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15" t="s">
@@ -6847,10 +6884,14 @@
       <c r="I113" s="15">
         <v>3</v>
       </c>
-      <c r="J113" s="15"/>
-      <c r="K113" s="18"/>
+      <c r="J113" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="L113" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
@@ -6868,10 +6909,10 @@
         <v>11</v>
       </c>
       <c r="D114" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15" t="s">
@@ -6883,10 +6924,14 @@
       <c r="I114" s="15">
         <v>3</v>
       </c>
-      <c r="J114" s="15"/>
-      <c r="K114" s="18"/>
+      <c r="J114" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="L114" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
@@ -6904,10 +6949,10 @@
         <v>11</v>
       </c>
       <c r="D115" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15" t="s">
@@ -6919,10 +6964,14 @@
       <c r="I115" s="15">
         <v>3</v>
       </c>
-      <c r="J115" s="15"/>
-      <c r="K115" s="18"/>
+      <c r="J115" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>310</v>
+      </c>
       <c r="L115" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
@@ -6940,10 +6989,10 @@
         <v>11</v>
       </c>
       <c r="D116" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15" t="s">
@@ -6955,10 +7004,14 @@
       <c r="I116" s="15">
         <v>3</v>
       </c>
-      <c r="J116" s="15"/>
-      <c r="K116" s="18"/>
+      <c r="J116" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>311</v>
+      </c>
       <c r="L116" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
@@ -6976,10 +7029,10 @@
         <v>7</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
@@ -6992,11 +7045,13 @@
         <v>3</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K117" s="18"/>
+        <v>273</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>312</v>
+      </c>
       <c r="L117" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
@@ -7014,10 +7069,10 @@
         <v>7</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F118" s="46"/>
       <c r="G118" s="20" t="s">
@@ -7032,7 +7087,7 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M118" s="46"/>
       <c r="N118" s="46"/>
@@ -7050,10 +7105,10 @@
         <v>11</v>
       </c>
       <c r="D119" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="47" t="s">
         <v>251</v>
-      </c>
-      <c r="E119" s="47" t="s">
-        <v>252</v>
       </c>
       <c r="F119" s="50"/>
       <c r="G119" s="20" t="s">
@@ -7068,7 +7123,7 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
       <c r="L119" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M119" s="46"/>
       <c r="N119" s="50"/>
@@ -7086,10 +7141,10 @@
         <v>11</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15" t="s">
@@ -7101,17 +7156,21 @@
       <c r="I120" s="15">
         <v>3</v>
       </c>
-      <c r="J120" s="15"/>
-      <c r="K120" s="18"/>
+      <c r="J120" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="L120" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
       <c r="P120" s="15"/>
     </row>
-    <row r="121" spans="1:16" s="53" customFormat="1" ht="28.8" hidden="1">
+    <row r="121" spans="1:16" s="53" customFormat="1" ht="43.2" hidden="1">
       <c r="A121" s="26">
         <v>80</v>
       </c>
@@ -7122,10 +7181,10 @@
         <v>11</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15" t="s">
@@ -7137,10 +7196,14 @@
       <c r="I121" s="15">
         <v>3</v>
       </c>
-      <c r="J121" s="15"/>
-      <c r="K121" s="18"/>
+      <c r="J121" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="L121" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M121" s="15"/>
       <c r="N121" s="15"/>
@@ -7158,10 +7221,10 @@
         <v>11</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15" t="s">
@@ -7173,10 +7236,14 @@
       <c r="I122" s="15">
         <v>3</v>
       </c>
-      <c r="J122" s="15"/>
-      <c r="K122" s="18"/>
+      <c r="J122" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K122" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="L122" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
@@ -7194,10 +7261,10 @@
         <v>11</v>
       </c>
       <c r="D123" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15" t="s">
@@ -7212,7 +7279,7 @@
       <c r="J123" s="15"/>
       <c r="K123" s="18"/>
       <c r="L123" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M123" s="44">
         <v>43061</v>
@@ -7220,10 +7287,10 @@
       <c r="N123" s="15"/>
       <c r="O123" s="15"/>
       <c r="P123" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" s="53" customFormat="1" ht="28.8" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" s="53" customFormat="1" ht="14.4" hidden="1">
       <c r="A124" s="26">
         <v>86</v>
       </c>
@@ -7234,10 +7301,10 @@
         <v>11</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15" t="s">
@@ -7250,13 +7317,13 @@
         <v>3</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K124" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L124" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M124" s="15"/>
       <c r="N124" s="15"/>
@@ -7274,10 +7341,10 @@
         <v>11</v>
       </c>
       <c r="D125" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" s="30" t="s">
         <v>244</v>
-      </c>
-      <c r="E125" s="30" t="s">
-        <v>245</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="20" t="s">
@@ -7289,10 +7356,14 @@
       <c r="I125" s="20">
         <v>3</v>
       </c>
-      <c r="J125" s="20"/>
-      <c r="K125" s="30"/>
+      <c r="J125" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="K125" s="30" t="s">
+        <v>316</v>
+      </c>
       <c r="L125" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M125" s="20"/>
       <c r="N125" s="20"/>
@@ -7311,7 +7382,7 @@
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="15" t="s">
@@ -7322,7 +7393,7 @@
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K126" s="18"/>
       <c r="L126" s="6"/>
@@ -7459,7 +7530,7 @@
   </sheetPr>
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
@@ -7503,7 +7574,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
